--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -46,330 +46,330 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>disappointment</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>inches</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>waste</t>
   </si>
   <si>
     <t>loose</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>instead</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>fell</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>fl</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>tried</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>return</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>minutes</t>
   </si>
   <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>better</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>2</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>expansion</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
@@ -385,13 +385,13 @@
     <t>cute</t>
   </si>
   <si>
-    <t>playing</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -845,13 +845,13 @@
         <v>91</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -871,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -921,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8095238095238095</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -939,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -971,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="K6">
-        <v>0.8518518518518519</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1021,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7605633802816901</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1039,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>95</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.8125</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1071,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K8">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1121,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.734375</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K9">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1171,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7258064516129032</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C10">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D10">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K10">
-        <v>0.660377358490566</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1221,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7037037037037037</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1239,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="K11">
-        <v>0.5797101449275363</v>
+        <v>0.5738880918220947</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1271,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>100</v>
       </c>
       <c r="K12">
-        <v>0.5652797704447633</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="L12">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>303</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1321,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.671875</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>101</v>
       </c>
       <c r="K13">
-        <v>0.4937759336099585</v>
+        <v>0.491701244813278</v>
       </c>
       <c r="L13">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M13">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1371,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6818181818181818</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>102</v>
       </c>
       <c r="K14">
-        <v>0.4565573770491803</v>
+        <v>0.4516393442622951</v>
       </c>
       <c r="L14">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M14">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1421,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6554054054054054</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1439,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="K15">
-        <v>0.3617021276595745</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1471,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6359223300970874</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="C16">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D16">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1489,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K16">
-        <v>0.3608562691131498</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L16">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1521,13 +1521,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6181818181818182</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K17">
-        <v>0.3584905660377358</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1571,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6050420168067226</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C18">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1589,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K18">
-        <v>0.3373493975903614</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L18">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M18">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1621,13 +1621,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1639,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K19">
-        <v>0.3174603174603174</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="L19">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>129</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1671,13 +1671,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1689,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>108</v>
       </c>
       <c r="K20">
-        <v>0.3</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1721,13 +1721,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5428571428571428</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>109</v>
       </c>
       <c r="K21">
-        <v>0.2265625</v>
+        <v>0.2109375</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1771,13 +1771,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5161290322580645</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1789,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>110</v>
       </c>
       <c r="K22">
-        <v>0.2043010752688172</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>148</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1821,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5072463768115942</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C23">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1839,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>111</v>
       </c>
       <c r="K23">
-        <v>0.1984126984126984</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1871,13 +1871,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5014492753623189</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>112</v>
       </c>
       <c r="K24">
-        <v>0.1888111888111888</v>
+        <v>0.1847389558232932</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>116</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1921,13 +1921,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4489795918367347</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1939,19 +1939,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>113</v>
       </c>
       <c r="K25">
-        <v>0.1847389558232932</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="L25">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>203</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1971,13 +1971,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4473684210526316</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1989,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K26">
-        <v>0.1724137931034483</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2021,13 +2021,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4444444444444444</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>115</v>
@@ -2071,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4444444444444444</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2089,31 +2089,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K28">
-        <v>0.1538461538461539</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>99</v>
+        <v>970</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2121,13 +2121,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4259259259259259</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2139,31 +2139,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K29">
-        <v>0.1535087719298246</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="L29">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>965</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2171,13 +2171,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4047619047619048</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2189,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K30">
-        <v>0.1168831168831169</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2221,13 +2221,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>119</v>
       </c>
       <c r="K31">
-        <v>0.08021390374331551</v>
+        <v>0.09358288770053476</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2271,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3984375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>120</v>
       </c>
       <c r="K32">
-        <v>0.07520891364902507</v>
+        <v>0.07242339832869081</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2321,13 +2321,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3968253968253968</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2339,31 +2339,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>121</v>
       </c>
       <c r="K33">
-        <v>0.07477243172951886</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="L33">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M33">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1423</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2371,13 +2371,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3734939759036144</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2389,19 +2389,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>122</v>
       </c>
       <c r="K34">
-        <v>0.07003891050583658</v>
+        <v>0.05836575875486381</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2421,13 +2421,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3720930232558139</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>123</v>
       </c>
       <c r="K35">
-        <v>0.05263157894736842</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2471,13 +2471,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3649289099526066</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C36">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D36">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2489,31 +2489,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="K36">
-        <v>0.048</v>
+        <v>0.04071246819338423</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>714</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2521,13 +2521,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3622047244094488</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C37">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2539,31 +2539,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>125</v>
       </c>
       <c r="K37">
-        <v>0.02702702702702703</v>
+        <v>0.04</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N37">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>684</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2571,13 +2571,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3578947368421053</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C38">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2597,13 +2597,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.35</v>
+        <v>0.3515625</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2623,13 +2623,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3370786516853932</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2649,7 +2649,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3333333333333333</v>
+        <v>0.328125</v>
       </c>
       <c r="C41">
         <v>21</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2675,13 +2675,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3333333333333333</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2701,13 +2701,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3134328358208955</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2727,13 +2727,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3125</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2753,13 +2753,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.293103448275862</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2779,13 +2779,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2857142857142857</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2805,13 +2805,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2821782178217822</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C47">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D47">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2831,13 +2831,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.28125</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2857,13 +2857,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2786885245901639</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>44</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2883,13 +2883,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2741935483870968</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2909,13 +2909,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2653061224489796</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2935,25 +2935,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2352941176470588</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2961,13 +2961,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2319587628865979</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C53">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>149</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2987,25 +2987,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2162162162162162</v>
+        <v>0.1693907875185736</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>58</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3013,25 +3013,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>160</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3039,13 +3039,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1978021978021978</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>73</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3065,13 +3065,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1949152542372881</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3091,13 +3091,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1884057971014493</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="C58">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D58">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>224</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3117,13 +3117,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1709401709401709</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3143,13 +3143,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1649484536082474</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>81</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3169,13 +3169,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1582278481012658</v>
+        <v>0.15</v>
       </c>
       <c r="C61">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D61">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>266</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3195,13 +3195,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1571428571428571</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>118</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3221,25 +3221,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1560178306092125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C63">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>568</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3247,25 +3247,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1556195965417868</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="C64">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D64">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E64">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>293</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3273,13 +3273,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1401273885350318</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3299,13 +3299,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>216</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3325,13 +3325,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1265822784810127</v>
+        <v>0.1211453744493392</v>
       </c>
       <c r="C67">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D67">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>276</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3351,13 +3351,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1261682242990654</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>187</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3377,13 +3377,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1211453744493392</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="C69">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D69">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>399</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3403,13 +3403,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1171875</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3429,25 +3429,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1161048689138577</v>
+        <v>0.1012145748987854</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D71">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3455,13 +3455,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1147540983606557</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3481,13 +3481,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1012658227848101</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3507,25 +3507,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09947643979057591</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C74">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D74">
         <v>19</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3533,13 +3533,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09315068493150686</v>
+        <v>0.09041095890410959</v>
       </c>
       <c r="C75">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3559,25 +3559,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09142857142857143</v>
+        <v>0.07606263982102908</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>159</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3585,25 +3585,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0797872340425532</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>173</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3611,25 +3611,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06935123042505593</v>
+        <v>0.06810035842293907</v>
       </c>
       <c r="C78">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D78">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F78">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>416</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3637,25 +3637,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06760563380281689</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="C79">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D79">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>331</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3663,25 +3663,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.06754530477759473</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="C80">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D80">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E80">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="F80">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>566</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3689,25 +3689,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.05830164765525982</v>
+        <v>0.05079365079365079</v>
       </c>
       <c r="C81">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F81">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>743</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3715,25 +3715,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.05063291139240506</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="C82">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F82">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>300</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3741,25 +3741,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03981623277182236</v>
+        <v>0.044529262086514</v>
       </c>
       <c r="C83">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D83">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E83">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="F83">
-        <v>0.9299999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>627</v>
+        <v>751</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3767,25 +3767,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03747072599531616</v>
+        <v>0.03738317757009346</v>
       </c>
       <c r="C84">
         <v>16</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F84">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
